--- a/classification/droptc/sentence/drone-sbert/unfreeze/37622020/prediction.xlsx
+++ b/classification/droptc/sentence/drone-sbert/unfreeze/37622020/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9401511549949646</v>
+        <v>0.9999815225601196</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9979283809661865</v>
+        <v>0.9999810457229614</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9979530572891235</v>
+        <v>0.9999632835388184</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.997907280921936</v>
+        <v>0.9998496770858765</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.997904896736145</v>
+        <v>0.9999809265136719</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9979154467582703</v>
+        <v>0.999981164932251</v>
       </c>
     </row>
     <row r="8">
@@ -646,19 +646,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9858624339103699</v>
+        <v>0.9999821186065674</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9979159235954285</v>
+        <v>0.9999790191650391</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.985836386680603</v>
+        <v>0.9999821186065674</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9979279041290283</v>
+        <v>0.9999697208404541</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9979252815246582</v>
+        <v>0.999982476234436</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9979421496391296</v>
+        <v>0.9999057054519653</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9978876709938049</v>
+        <v>0.9999812841415405</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.990924596786499</v>
+        <v>0.9998996257781982</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.940712571144104</v>
+        <v>0.9999810457229614</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9978997707366943</v>
+        <v>0.9999823570251465</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9979300498962402</v>
+        <v>0.9994555115699768</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9979530572891235</v>
+        <v>0.9999817609786987</v>
       </c>
     </row>
     <row r="20">
@@ -982,19 +982,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.985767126083374</v>
+        <v>0.9999812841415405</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9978811144828796</v>
+        <v>0.9999814033508301</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9976535439491272</v>
+        <v>0.9999818801879883</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9979352951049805</v>
+        <v>0.9999810457229614</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9978736639022827</v>
+        <v>0.9999815225601196</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.457093745470047</v>
+        <v>0.9999028444290161</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9979103207588196</v>
+        <v>0.9993589520454407</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9797291159629822</v>
+        <v>0.9999814033508301</v>
       </c>
     </row>
     <row r="28">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9713482260704041</v>
+        <v>0.9999810457229614</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9978118538856506</v>
+        <v>0.9999818801879883</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9979335069656372</v>
+        <v>0.9999806880950928</v>
       </c>
     </row>
     <row r="31">
@@ -1290,19 +1290,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9508463740348816</v>
+        <v>0.9999797344207764</v>
       </c>
     </row>
     <row r="32">
@@ -1323,14 +1323,14 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9899091720581055</v>
+        <v>0.9999825954437256</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.997914731502533</v>
+        <v>0.9998955726623535</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9486943483352661</v>
+        <v>0.9998923540115356</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9690271019935608</v>
+        <v>0.999908447265625</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9978877902030945</v>
+        <v>0.999980092048645</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9979348182678223</v>
+        <v>0.9999071359634399</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9979366064071655</v>
+        <v>0.9999817609786987</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.997860848903656</v>
+        <v>0.9989001750946045</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9979287385940552</v>
+        <v>0.9999063014984131</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9979345798492432</v>
+        <v>0.9999808073043823</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9979154467582703</v>
+        <v>0.9970024228096008</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9979022741317749</v>
+        <v>0.9998993873596191</v>
       </c>
     </row>
     <row r="44">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9893043041229248</v>
+        <v>0.9999094009399414</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9978607296943665</v>
+        <v>0.9999041557312012</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9979071617126465</v>
+        <v>0.9998886585235596</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9462845325469971</v>
+        <v>0.9988505840301514</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9978570342063904</v>
+        <v>0.9998941421508789</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9826069474220276</v>
+        <v>0.9999808073043823</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9979473948478699</v>
+        <v>0.9998983144760132</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9979478716850281</v>
+        <v>0.9998829364776611</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9908826947212219</v>
+        <v>0.9999790191650391</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.997934103012085</v>
+        <v>0.9998983144760132</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9979378581047058</v>
+        <v>0.9998942613601685</v>
       </c>
     </row>
     <row r="55">
@@ -1962,19 +1962,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9795879125595093</v>
+        <v>0.9999809265136719</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9979187846183777</v>
+        <v>0.9999814033508301</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9979196190834045</v>
+        <v>0.9999818801879883</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.997904896736145</v>
+        <v>0.999910831451416</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9909015893936157</v>
+        <v>0.9999812841415405</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9909015893936157</v>
+        <v>0.9999818801879883</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9856695532798767</v>
+        <v>0.9999821186065674</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9979164004325867</v>
+        <v>0.9999816417694092</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9909170269966125</v>
+        <v>0.9999086856842041</v>
       </c>
     </row>
     <row r="64">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2223,10 +2223,10 @@
         </is>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9829913973808289</v>
+        <v>0.9860298037528992</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9979187846183777</v>
+        <v>0.9999099969863892</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9979495406150818</v>
+        <v>0.9999099969863892</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9979230761528015</v>
+        <v>0.9999071359634399</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9979033470153809</v>
+        <v>0.9999099969863892</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9979435801506042</v>
+        <v>0.9999268054962158</v>
       </c>
     </row>
     <row r="70">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2391,10 +2391,10 @@
         </is>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9444455504417419</v>
+        <v>0.9999802112579346</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9978927969932556</v>
+        <v>0.9999017715454102</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9979131817817688</v>
+        <v>0.9999799728393555</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7416250109672546</v>
+        <v>0.9999099969863892</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.990832507610321</v>
+        <v>0.9999816417694092</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9979204535484314</v>
+        <v>0.9999817609786987</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9855172038078308</v>
+        <v>0.9999099969863892</v>
       </c>
     </row>
     <row r="77">
@@ -2578,19 +2578,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E77" t="b">
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9908826947212219</v>
+        <v>0.9999794960021973</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9978836178779602</v>
+        <v>0.9999099969863892</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9979012012481689</v>
+        <v>0.9999809265136719</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9858046174049377</v>
+        <v>0.9999077320098877</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9979403614997864</v>
+        <v>0.9999818801879883</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9908739328384399</v>
+        <v>0.9999077320098877</v>
       </c>
     </row>
     <row r="83">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9909170269966125</v>
+        <v>0.9999818801879883</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9979339838027954</v>
+        <v>0.9999818801879883</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.997904896736145</v>
+        <v>0.9999821186065674</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5767034888267517</v>
+        <v>0.9999070167541504</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9978699684143066</v>
+        <v>0.9999810457229614</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9979094862937927</v>
+        <v>0.9999047517776489</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.997904896736145</v>
+        <v>0.999981164932251</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.6373176574707031</v>
+        <v>0.9999810457229614</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9979348182678223</v>
+        <v>0.9999812841415405</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9908301830291748</v>
+        <v>0.9999810457229614</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9979186654090881</v>
+        <v>0.9999812841415405</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9979343414306641</v>
+        <v>0.9999815225601196</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9979255199432373</v>
+        <v>0.9999810457229614</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9979009628295898</v>
+        <v>0.9999810457229614</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9978901743888855</v>
+        <v>0.9996156692504883</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9978916049003601</v>
+        <v>0.9999818801879883</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9828470945358276</v>
+        <v>0.9999233484268188</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9979336261749268</v>
+        <v>0.9999810457229614</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9769579172134399</v>
+        <v>0.999981164932251</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9979041814804077</v>
+        <v>0.9998270869255066</v>
       </c>
     </row>
     <row r="103">
@@ -3306,19 +3306,19 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E103" t="b">
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9978756904602051</v>
+        <v>0.9998800754547119</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.997891366481781</v>
+        <v>0.9999783039093018</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9826288223266602</v>
+        <v>0.9999287128448486</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.997904896736145</v>
+        <v>0.9999812841415405</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9979053735733032</v>
+        <v>0.9998975992202759</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9838325381278992</v>
+        <v>0.9999005794525146</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9979054927825928</v>
+        <v>0.9999809265136719</v>
       </c>
     </row>
     <row r="110">
@@ -3502,19 +3502,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E110" t="b">
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9235612750053406</v>
+        <v>0.9999810457229614</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9908373355865479</v>
+        <v>0.9998962879180908</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.997936487197876</v>
+        <v>0.9998959302902222</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9909238219261169</v>
+        <v>0.9998995065689087</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9978517293930054</v>
+        <v>0.9999818801879883</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9979183077812195</v>
+        <v>0.9999122619628906</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E116" t="b">
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9858670830726624</v>
+        <v>0.9999810457229614</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.997904896736145</v>
+        <v>0.9999818801879883</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9859786629676819</v>
+        <v>0.9997904896736145</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>ParamViolation</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>ParamViolation</t>
-        </is>
-      </c>
       <c r="E119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9764492511749268</v>
+        <v>0.999858021736145</v>
       </c>
     </row>
     <row r="120">
@@ -3782,19 +3782,19 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E120" t="b">
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9858046174049377</v>
+        <v>0.9999810457229614</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9978898167610168</v>
+        <v>0.9999284744262695</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9979063272476196</v>
+        <v>0.9999812841415405</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9855340719223022</v>
+        <v>0.9999284744262695</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9979244470596313</v>
+        <v>0.9999812841415405</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9979077577590942</v>
+        <v>0.9999284744262695</v>
       </c>
     </row>
     <row r="126">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E126" t="b">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9908826947212219</v>
+        <v>0.9999816417694092</v>
       </c>
     </row>
     <row r="127">
@@ -3983,14 +3983,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9978318810462952</v>
+        <v>0.9997755885124207</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9979301691055298</v>
+        <v>0.9999810457229614</v>
       </c>
     </row>
     <row r="129">
@@ -4039,14 +4039,14 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.997883141040802</v>
+        <v>0.9998453855514526</v>
       </c>
     </row>
     <row r="130">
@@ -4067,14 +4067,14 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9979403614997864</v>
+        <v>0.9997492432594299</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E131" t="b">
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9906123280525208</v>
+        <v>0.9999806880950928</v>
       </c>
     </row>
     <row r="132">
@@ -4118,19 +4118,19 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E132" t="b">
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9978575110435486</v>
+        <v>0.947038471698761</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9979127049446106</v>
+        <v>0.9999808073043823</v>
       </c>
     </row>
     <row r="134">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4183,10 +4183,10 @@
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9979041814804077</v>
+        <v>0.9999796152114868</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9978134632110596</v>
+        <v>0.9999796152114868</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E136" t="b">
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.989861011505127</v>
+        <v>0.9999686479568481</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9979193806648254</v>
+        <v>0.9999810457229614</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E138" t="b">
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9821289777755737</v>
+        <v>0.9999823570251465</v>
       </c>
     </row>
     <row r="139">
@@ -4314,19 +4314,19 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E139" t="b">
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9766914844512939</v>
+        <v>0.9999817609786987</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9979248046875</v>
+        <v>0.9999808073043823</v>
       </c>
     </row>
     <row r="141">
@@ -4370,19 +4370,19 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>SoftwareFault</t>
-        </is>
-      </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9857305288314819</v>
+        <v>0.8137748837471008</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.99793541431427</v>
+        <v>0.9999810457229614</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.990868091583252</v>
+        <v>0.9999113082885742</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9979109168052673</v>
+        <v>0.9999816417694092</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.997860848903656</v>
+        <v>0.9999113082885742</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9770900011062622</v>
+        <v>0.9999804496765137</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9860671162605286</v>
+        <v>0.9999268054962158</v>
       </c>
     </row>
     <row r="148">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9860460162162781</v>
+        <v>0.9999803304672241</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.997767448425293</v>
+        <v>0.9999133348464966</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9731537699699402</v>
+        <v>0.9938088059425354</v>
       </c>
     </row>
     <row r="151">
@@ -4650,19 +4650,19 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E151" t="b">
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.8805568218231201</v>
+        <v>0.9999810457229614</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9979275465011597</v>
+        <v>0.9983636736869812</v>
       </c>
     </row>
     <row r="153">
@@ -4706,19 +4706,19 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E153" t="b">
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9908291101455688</v>
+        <v>0.9999810457229614</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9978959560394287</v>
+        <v>0.9999077320098877</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9979367256164551</v>
+        <v>0.9999815225601196</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.997928261756897</v>
+        <v>0.9999046325683594</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9979089498519897</v>
+        <v>0.9999814033508301</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9855340719223022</v>
+        <v>0.9999020099639893</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9908804893493652</v>
+        <v>0.9999815225601196</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.997904896736145</v>
+        <v>0.9997109770774841</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9979292154312134</v>
+        <v>0.9999803304672241</v>
       </c>
     </row>
     <row r="162">
@@ -4958,19 +4958,19 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E162" t="b">
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9826069474220276</v>
+        <v>0.8620273470878601</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9979259967803955</v>
+        <v>0.9999818801879883</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9599825739860535</v>
+        <v>0.9999039173126221</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9979143738746643</v>
+        <v>0.9999815225601196</v>
       </c>
     </row>
     <row r="166">
@@ -5070,19 +5070,19 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9908291101455688</v>
+        <v>0.9393337368965149</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9979090690612793</v>
+        <v>0.9998953342437744</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9446662664413452</v>
+        <v>0.9998821020126343</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9979348182678223</v>
+        <v>0.9999810457229614</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9515007734298706</v>
+        <v>0.9998953342437744</v>
       </c>
     </row>
     <row r="171">
@@ -5210,19 +5210,19 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9338790774345398</v>
+        <v>0.999887228012085</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9769222736358643</v>
+        <v>0.9999810457229614</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9827752709388733</v>
+        <v>0.9999819993972778</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9962611794471741</v>
+        <v>0.9999821186065674</v>
       </c>
     </row>
     <row r="175">
@@ -5322,19 +5322,19 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E175" t="b">
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.990774929523468</v>
+        <v>0.9999819993972778</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9860113859176636</v>
+        <v>0.9999819993972778</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9979006052017212</v>
+        <v>0.9999821186065674</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9978469610214233</v>
+        <v>0.9999819993972778</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9979109168052673</v>
+        <v>0.9999798536300659</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.997904896736145</v>
+        <v>0.9999809265136719</v>
       </c>
     </row>
     <row r="181">
@@ -5490,19 +5490,19 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E181" t="b">
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.99089515209198</v>
+        <v>0.9999815225601196</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9979100823402405</v>
+        <v>0.9999814033508301</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.997886598110199</v>
+        <v>0.9999233484268188</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9979236125946045</v>
+        <v>0.9999810457229614</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.99793940782547</v>
+        <v>0.999981164932251</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9979329109191895</v>
+        <v>0.9999812841415405</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9978926777839661</v>
+        <v>0.999982476234436</v>
       </c>
     </row>
     <row r="188">
@@ -5686,19 +5686,19 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E188" t="b">
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9909015893936157</v>
+        <v>0.9999812841415405</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9232918620109558</v>
+        <v>0.9999818801879883</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9908934831619263</v>
+        <v>0.9999818801879883</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9979301691055298</v>
+        <v>0.9995612502098083</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9826288223266602</v>
+        <v>0.9999816417694092</v>
       </c>
     </row>
     <row r="193">
@@ -5826,19 +5826,19 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9854359030723572</v>
+        <v>0.9999818801879883</v>
       </c>
     </row>
     <row r="194">
@@ -5859,14 +5859,14 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9857220649719238</v>
+        <v>0.9999274015426636</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9979447722434998</v>
+        <v>0.9998997449874878</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9979238510131836</v>
+        <v>0.9999812841415405</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9979400038719177</v>
+        <v>0.999981164932251</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9979130625724792</v>
+        <v>0.9999814033508301</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.8956658840179443</v>
+        <v>0.9999809265136719</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9979109168052673</v>
+        <v>0.9997811913490295</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9979396462440491</v>
+        <v>0.9999812841415405</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.997904896736145</v>
+        <v>0.9999823570251465</v>
       </c>
     </row>
     <row r="203">
@@ -6106,19 +6106,19 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E203" t="b">
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9768486618995667</v>
+        <v>0.9999806880950928</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9979307651519775</v>
+        <v>0.9998944997787476</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9979228377342224</v>
+        <v>0.9999822378158569</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9415132403373718</v>
+        <v>0.9999814033508301</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.990848183631897</v>
+        <v>0.9996377229690552</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.997868537902832</v>
+        <v>0.9999809265136719</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9427538514137268</v>
+        <v>0.9995194673538208</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E210" t="b">
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9826288223266602</v>
+        <v>0.999981164932251</v>
       </c>
     </row>
   </sheetData>
